--- a/mutation prob difference.xlsx
+++ b/mutation prob difference.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>mutation probability of 0.5</t>
   </si>
@@ -48,20 +48,17 @@
     <t>this file contain the differences between different value of probability for the mutation function</t>
   </si>
   <si>
-    <t>prob</t>
+    <t>Percent avg</t>
   </si>
   <si>
-    <t>value avg</t>
-  </si>
-  <si>
-    <t>percent avg</t>
+    <t>Probability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +66,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,17 +101,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -16350,16 +16374,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16644,10 +16668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1004"/>
+  <dimension ref="A1:S1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M3" sqref="M3:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16663,9 +16687,11 @@
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -16687,9 +16713,8 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -16703,7 +16728,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -16726,17 +16751,14 @@
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16767,19 +16789,15 @@
       <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>0.5</v>
       </c>
-      <c r="N4">
-        <f>AVERAGE(A5:A1004)</f>
-        <v>2.4711809333959978</v>
-      </c>
-      <c r="O4">
+      <c r="N4" s="3">
         <f>AVERAGE(B5:B1004)</f>
         <v>206.75278390990036</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.932021829</v>
       </c>
@@ -16810,19 +16828,15 @@
       <c r="J5">
         <v>218.13913890000001</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>0.6</v>
       </c>
-      <c r="N5">
-        <f>AVERAGE(C5:C1004)</f>
-        <v>2.483885075217001</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="3">
         <f>AVERAGE(D5:D1004)</f>
         <v>208.29146522660028</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.1574172969999998</v>
       </c>
@@ -16853,19 +16867,15 @@
       <c r="J6">
         <v>177.00596239999999</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>0.7</v>
       </c>
-      <c r="N6">
-        <f>AVERAGE(E5:E1004)</f>
-        <v>2.5207161759109993</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="3">
         <f>AVERAGE(F5:F1004)</f>
         <v>210.50435717790012</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.9117251770000001</v>
       </c>
@@ -16896,19 +16906,15 @@
       <c r="J7">
         <v>184.89161110000001</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>0.8</v>
       </c>
-      <c r="N7">
-        <f>AVERAGE(G5:G1004)</f>
-        <v>2.5163914547838124</v>
-      </c>
-      <c r="O7">
+      <c r="N7" s="3">
         <f>AVERAGE(H5:H1004)</f>
         <v>210.22183653990635</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.2855868500000001</v>
       </c>
@@ -16939,19 +16945,15 @@
       <c r="J8">
         <v>189.68532730000001</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>0.9</v>
       </c>
-      <c r="N8">
-        <f>AVERAGE(I5:I1004)</f>
-        <v>2.489919881692999</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="3">
         <f>AVERAGE(J5:J1004)</f>
         <v>208.48783572720015</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.0484018289999999</v>
       </c>
@@ -16983,7 +16985,7 @@
         <v>196.4168329</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.3693017830000001</v>
       </c>
@@ -17015,7 +17017,7 @@
         <v>203.42142150000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.485408804</v>
       </c>
@@ -17047,7 +17049,7 @@
         <v>168.21745960000001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.1321071630000001</v>
       </c>
@@ -17079,7 +17081,7 @@
         <v>200.6418625</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.4940392509999998</v>
       </c>
@@ -17111,7 +17113,7 @@
         <v>265.17395249999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.9141752539999999</v>
       </c>
@@ -17143,7 +17145,7 @@
         <v>197.53612469999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.8913281820000001</v>
       </c>
@@ -17175,7 +17177,7 @@
         <v>192.41056</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.93839764</v>
       </c>
